--- a/biology/Zoologie/Bathyporania/Bathyporania.xlsx
+++ b/biology/Zoologie/Bathyporania/Bathyporania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathyporania est un genre d'étoiles de mer abyssales de la famille des Poraniidae. Une seule espèce de ce genre a été observée pour l'instant, à l'occasion d'une mission scientifique dans les abysses.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (17 mai 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (17 mai 2014) :
 Bathyporania ascendens Mah &amp; Foltz, 2014</t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Christopher L. Mah et David W. Foltz, « New taxa and taxonomic revisions to the Poraniidae (Valvatacea; Asteroidea) with Comments on Feeding Biology », Zootaxa, Magnolia Press (d), vol. 3795, no 3,‎ 13 mai 2014, p. 327–372 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, PMID 24870481, DOI 10.11646/ZOOTAXA.3795.3.7)</t>
         </is>
